--- a/xlsx/country_comparison/solidarity_support_climate_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_positive.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.563431084578761</v>
+        <v>0.563498853260559</v>
       </c>
       <c r="C2" t="n">
         <v>0.60475424371171</v>
@@ -481,16 +481,16 @@
         <v>0.609413812756703</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449616357510206</v>
+        <v>0.449843052433434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.584712498691402</v>
+        <v>0.583955154990387</v>
       </c>
       <c r="M2" t="n">
         <v>0.699951386105416</v>
       </c>
       <c r="N2" t="n">
-        <v>0.542921850411716</v>
+        <v>0.543153219230958</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548340224270065</v>
+        <v>0.548888702456242</v>
       </c>
       <c r="C3" t="n">
         <v>0.580080585349521</v>
@@ -525,16 +525,16 @@
         <v>0.520289565099987</v>
       </c>
       <c r="K3" t="n">
-        <v>0.440566982947254</v>
+        <v>0.440780635761654</v>
       </c>
       <c r="L3" t="n">
-        <v>0.602083037157481</v>
+        <v>0.605453531287603</v>
       </c>
       <c r="M3" t="n">
         <v>0.754595050954226</v>
       </c>
       <c r="N3" t="n">
-        <v>0.517002634522486</v>
+        <v>0.51718496787221</v>
       </c>
     </row>
     <row r="4">
@@ -542,10 +542,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.482657094283177</v>
+        <v>0.484425269846573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.532496566334215</v>
+        <v>0.532496566334214</v>
       </c>
       <c r="D4" t="n">
         <v>0.510337516961996</v>
@@ -569,16 +569,16 @@
         <v>0.534124061707246</v>
       </c>
       <c r="K4" t="n">
-        <v>0.323131262509618</v>
+        <v>0.323312484205863</v>
       </c>
       <c r="L4" t="n">
-        <v>0.580714537636134</v>
+        <v>0.594355780533345</v>
       </c>
       <c r="M4" t="n">
         <v>0.672464791241274</v>
       </c>
       <c r="N4" t="n">
-        <v>0.435622901644941</v>
+        <v>0.435731863213516</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.473487767327748</v>
+        <v>0.472274429131213</v>
       </c>
       <c r="C5" t="n">
         <v>0.540327123031372</v>
@@ -613,16 +613,16 @@
         <v>0.559028287197859</v>
       </c>
       <c r="K5" t="n">
-        <v>0.301155883709261</v>
+        <v>0.301289618026923</v>
       </c>
       <c r="L5" t="n">
-        <v>0.466866746267779</v>
+        <v>0.456838794373566</v>
       </c>
       <c r="M5" t="n">
         <v>0.603725863836496</v>
       </c>
       <c r="N5" t="n">
-        <v>0.460819448718946</v>
+        <v>0.460841645436029</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.374600636479701</v>
+        <v>0.373752935747861</v>
       </c>
       <c r="C6" t="n">
         <v>0.428037080634314</v>
@@ -657,16 +657,16 @@
         <v>0.415829580788872</v>
       </c>
       <c r="K6" t="n">
-        <v>0.263692787331591</v>
+        <v>0.263792724428881</v>
       </c>
       <c r="L6" t="n">
-        <v>0.349255364607529</v>
+        <v>0.34371419848382</v>
       </c>
       <c r="M6" t="n">
         <v>0.533333498726061</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358176782808854</v>
+        <v>0.357961152388123</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_climate_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_positive.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.563498853260559</v>
+        <v>0.563185705845955</v>
       </c>
       <c r="C2" t="n">
         <v>0.60475424371171</v>
@@ -484,7 +484,7 @@
         <v>0.449843052433434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.583955154990387</v>
+        <v>0.581687077490783</v>
       </c>
       <c r="M2" t="n">
         <v>0.699951386105416</v>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548888702456242</v>
+        <v>0.549025299914154</v>
       </c>
       <c r="C3" t="n">
         <v>0.580080585349521</v>
@@ -528,7 +528,7 @@
         <v>0.440780635761654</v>
       </c>
       <c r="L3" t="n">
-        <v>0.605453531287603</v>
+        <v>0.606993083582337</v>
       </c>
       <c r="M3" t="n">
         <v>0.754595050954226</v>
@@ -542,10 +542,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.484425269846573</v>
+        <v>0.484505093491948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.532496566334214</v>
+        <v>0.532496566334215</v>
       </c>
       <c r="D4" t="n">
         <v>0.510337516961996</v>
@@ -572,7 +572,7 @@
         <v>0.323312484205863</v>
       </c>
       <c r="L4" t="n">
-        <v>0.594355780533345</v>
+        <v>0.595431312960594</v>
       </c>
       <c r="M4" t="n">
         <v>0.672464791241274</v>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.472274429131213</v>
+        <v>0.472605946730509</v>
       </c>
       <c r="C5" t="n">
         <v>0.540327123031372</v>
@@ -616,7 +616,7 @@
         <v>0.301289618026923</v>
       </c>
       <c r="L5" t="n">
-        <v>0.456838794373566</v>
+        <v>0.459773904184331</v>
       </c>
       <c r="M5" t="n">
         <v>0.603725863836496</v>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.373752935747861</v>
+        <v>0.373830435892481</v>
       </c>
       <c r="C6" t="n">
         <v>0.428037080634314</v>
@@ -660,7 +660,7 @@
         <v>0.263792724428881</v>
       </c>
       <c r="L6" t="n">
-        <v>0.34371419848382</v>
+        <v>0.344282629685112</v>
       </c>
       <c r="M6" t="n">
         <v>0.533333498726061</v>
